--- a/inst/extdata/sNdR_sample_example_simple.xlsx
+++ b/inst/extdata/sNdR_sample_example_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au103725/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA39E6C1-967A-B14D-827C-E0F874CEB46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_B3CE6616CD35B1B87CF7C3319F558F625639DB4B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2781924-2DD6-C84A-89B9-829CEE8925DB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="34080" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25460" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="183">
   <si>
     <t>color</t>
   </si>
@@ -226,9 +226,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1,2,3,1,2,3</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>1,2,2,2</t>
-  </si>
-  <si>
     <t>annotation_name</t>
   </si>
   <si>
@@ -415,6 +409,9 @@
     <t>horizontal_panels_list</t>
   </si>
   <si>
+    <t>3-seq:TRUE,TRUE;TT-seq:TRUE,TRUE;RNA-seq:TRUE,TRUE;ChIP-seq:TRUE,TRUE</t>
+  </si>
+  <si>
     <t>horizontal_spacers</t>
   </si>
   <si>
@@ -562,7 +559,7 @@
     <t>track_height_cm</t>
   </si>
   <si>
-    <t>0.4</t>
+    <t>0.3</t>
   </si>
   <si>
     <t>track_width_cm</t>
@@ -1440,11 +1437,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1454,17 +1449,16 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1484,31 +1478,28 @@
         <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1531,33 +1522,30 @@
         <v>67</v>
       </c>
       <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -1572,36 +1560,33 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
         <v>68</v>
       </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -1616,36 +1601,33 @@
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -1660,28 +1642,25 @@
         <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1693,9 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1710,88 +1687,88 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -1806,10 +1783,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1821,27 +1798,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -1849,71 +1824,71 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1921,7 +1896,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -1929,7 +1904,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -1937,15 +1912,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -1953,39 +1928,39 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -1996,52 +1971,52 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
@@ -2049,39 +2024,39 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
@@ -2089,7 +2064,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -2097,7 +2072,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
@@ -2105,7 +2080,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
@@ -2113,23 +2088,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
         <v>134</v>
-      </c>
-      <c r="B36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
@@ -2137,7 +2112,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
@@ -2145,7 +2120,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -2153,47 +2128,47 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
         <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
         <v>144</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
@@ -2201,47 +2176,47 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -2249,23 +2224,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
@@ -2273,87 +2248,87 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
         <v>157</v>
-      </c>
-      <c r="B56" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
         <v>161</v>
-      </c>
-      <c r="B59" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
         <v>163</v>
-      </c>
-      <c r="B60" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s">
         <v>165</v>
-      </c>
-      <c r="B61" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" t="s">
         <v>167</v>
-      </c>
-      <c r="B62" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
         <v>170</v>
-      </c>
-      <c r="B64" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
         <v>172</v>
-      </c>
-      <c r="B65" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -2361,7 +2336,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -2369,34 +2344,34 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" t="s">
         <v>176</v>
-      </c>
-      <c r="B68" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s">
         <v>178</v>
-      </c>
-      <c r="B69" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
         <v>180</v>
-      </c>
-      <c r="B70" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" t="s">
         <v>182</v>
-      </c>
-      <c r="B71" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/sNdR_sample_example_simple.xlsx
+++ b/inst/extdata/sNdR_sample_example_simple.xlsx
@@ -2377,4 +2377,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005C0785B5AE07D648A35CBE06027B3A9A" ma:contentTypeVersion="10" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="0bf6ee709b3de6cc2ca22a78e4061994">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f2cc503-5358-4f9e-8ed5-059173de2454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f752f1f93033319c3949c5a45c6682b7" ns2:_="">
+    <xsd:import namespace="2f2cc503-5358-4f9e-8ed5-059173de2454"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2f2cc503-5358-4f9e-8ed5-059173de2454" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA0E6EC-8D55-40E7-B0F6-8880F64E45AE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8676217E-19C3-40D1-A024-18163227E2C5}"/>
 </file>